--- a/data/output/bases-separadas/-14.xlsx
+++ b/data/output/bases-separadas/-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>30330883000169</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01852741000163</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>8784757000125</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07800450000108</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>12426138000136</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>09500759000108</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>13113561000149</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07888247000135</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>8953263000127</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05359132000128</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7275016000156</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04706576000120</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>31653575000137</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07642390000142</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>27595780001864</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>09686483000102</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>23459837000107</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07857655000200</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>22310550000140</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07871613000143</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>4779792000103</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>05212086000130</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>4601557000139</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08931226000118</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>4471006000106</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08881684000190</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>3173065000127</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07432934000141</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>7075810000156</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05157937000270</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16555210000186</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02008716000160</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>28622744000167</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08695111000171</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>3726370000107</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>02049867000167</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>21348093000110</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04540540000119</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>5498875000189</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08806527000110</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>5814246000110</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01260847000178</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>18916899000152</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04948213000109</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>18636294000108</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05988254000183</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>16923212000180</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01878110000113</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>28309857000107</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04112043000110</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>29268420000135</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07389925000115</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>22678014000100</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05076086000150</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>4928281000106</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08064546000118</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>22540361000163</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>08938908000152</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>20342173000103</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07770098000105</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>565905000109</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>06959021000115</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>13029274000155</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>043821376000170</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>3705794000187</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>038650493000188</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1901904000150</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04101130000171</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>12498681000149</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04215998000100</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>35519560000131</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>05486992000122</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>85239820000193</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>07313053000101</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>19906339000180</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0382069000127</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>8963150000102</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>08974363000130</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>8294796000144</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>023374794000159</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>21154569000181</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>06226556000187</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>65034654000181</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>07916384000217</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>29323976000187</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>03689717000180</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>22703647000112</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>04954155000118</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>32811353000168</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>08681739000118</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1995050000119</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01810583000189</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>91495499000100</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>09473933000170</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>18668662000108</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>08302052000124</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>18360670000184</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>08733613000140</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>24707013000163</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>09476952000150</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>4483695000160</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>03817246000149</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>13129196000160</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>08710359000164</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>7673114000141</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>07312707000182</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>15740555000147</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>08706145000114</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>18379944000187</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>02772587000182</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>9252766000138</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>03578110000123</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>6986459000192</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>08297611000155</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>31758155000115</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04451758000105</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>29932922000119</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>01294213000136</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>81055493000169</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>08988270000164</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>23286015000163</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>02808464000154</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>3547127000113</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>05644974000555</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>20906352000118</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>05604337000121</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>2679522000197</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>03512605000150</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>28666459000148</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>04634958000195</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>15138340004490</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>08987359000106</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>8906610000160</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>03670359000164</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>17883020000150</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>07544969000172</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>13744353000148</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>08883034000183</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>7991507000284</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>09208397000186</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>20934696000130</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>05400392000108</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>32692458000145</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>07868225000103</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>27968606000171</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>02926686000171</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>14488608000111</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>08054310000109</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>23997300000192</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04172186000117</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>1136535000157</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>07489093000109</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>28778324000174</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>07134248000194</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>14056070000176</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04601804000105</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>389481003275</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>07837422000165</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>57849655000156</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>07960385000420</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>29884789000172</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>08520494000147</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>2950028000115</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>04451516000103</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>8879138000114</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>07823425000140</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>847979000138</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>03941904000703</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>55386445000143</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>06120476000142</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>6256546000194</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01683621000180</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>1736193000106</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>04204778000173</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>6941800000193</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05033791000170</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>4058679000392</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01759877000123</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>28072149000103</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>02543798000143</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>24423254000180</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>06894522000160</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>12354535000140</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>08404976000131</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>32193609000110</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>09141135000141</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>10341422000184</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0564205000108</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>13726555000167</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0859495000109</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>15631736000135</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>04615251000131</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>3392348000160</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>05882465000137</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>4476272000113</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>07808221000130</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>7101952000140</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>08900756000107</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>10190061000201</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>01281486000146</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
